--- a/excel_kp/template_kp.xlsx
+++ b/excel_kp/template_kp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Web: https://lightsnab.ru/</t>
+  </si>
+  <si>
+    <t>адрес:</t>
   </si>
 </sst>
 </file>
@@ -297,8 +300,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,29 +321,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +782,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -854,9 +857,9 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="8" t="s">
@@ -867,9 +870,9 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -879,14 +882,17 @@
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="21.6" customHeight="1">
       <c r="C10" s="26"/>
@@ -894,50 +900,50 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="14" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -959,7 +965,7 @@
       <c r="K16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
@@ -967,6 +973,7 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>

--- a/excel_kp/template_kp.xlsx
+++ b/excel_kp/template_kp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>№</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>адрес:</t>
+  </si>
+  <si>
+    <t>Комментарий:</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,6 +335,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J9"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,8 +970,25 @@
     <row r="16" spans="1:13">
       <c r="K16" s="17"/>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>

--- a/excel_kp/template_kp.xlsx
+++ b/excel_kp/template_kp.xlsx
@@ -61,9 +61,6 @@
     <t>заказчик:</t>
   </si>
   <si>
-    <t>шт</t>
-  </si>
-  <si>
     <t xml:space="preserve">Поставщик: _____________________________ </t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Комментарий:</t>
+  </si>
+  <si>
+    <t>ед.</t>
   </si>
 </sst>
 </file>
@@ -312,6 +312,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,9 +338,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,7 +788,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,22 +863,22 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -888,27 +888,27 @@
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="21.6" customHeight="1">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1">
@@ -921,11 +921,11 @@
       <c r="C12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="19" t="s">
         <v>7</v>
       </c>
@@ -933,23 +933,23 @@
         <v>4</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="14" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -971,19 +971,19 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/excel_kp/template_kp.xlsx
+++ b/excel_kp/template_kp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -40,9 +40,6 @@
     <t>артикул</t>
   </si>
   <si>
-    <t>итого ррц</t>
-  </si>
-  <si>
     <t>цена ррц</t>
   </si>
   <si>
@@ -80,6 +77,12 @@
   </si>
   <si>
     <t>ед.</t>
+  </si>
+  <si>
+    <t>скидка</t>
+  </si>
+  <si>
+    <t>итого со скидкой</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +314,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,7 +430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26747</xdr:rowOff>
     </xdr:to>
@@ -466,13 +478,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>280148</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>65</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>705971</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>223106</xdr:rowOff>
@@ -785,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -799,16 +811,17 @@
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="1.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="1.85546875" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="1.85546875" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6.75" customHeight="1"/>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1">
+    <row r="1" spans="1:14" ht="6.75" customHeight="1"/>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -816,9 +829,10 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="H2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -826,11 +840,12 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+      <c r="H3" s="21"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -838,11 +853,12 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="3" customHeight="1" thickBot="1">
+      <c r="H4" s="21"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="3" customHeight="1" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -853,65 +869,71 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H8" s="2"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="10.5" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" thickBot="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.6" customHeight="1">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" ht="10.5" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:14" ht="34.5" customHeight="1" thickBot="1">
       <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
@@ -921,82 +943,87 @@
       <c r="C12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>6</v>
+      <c r="J12" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+        <v>20</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="14" t="e">
+      <c r="G13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="14" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1">
+      <c r="L13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
